--- a/medicine/Enfance/Henry_de_Brisay/Henry_de_Brisay.xlsx
+++ b/medicine/Enfance/Henry_de_Brisay/Henry_de_Brisay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry de Brisay (Paris, 10 décembre 1862 - Paris, 9 septembre 1919) est un écrivain populaire français de la fin du XIXe siècle et du début du XXe.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Alfred Louis Marie de Brisay est le fils d'Achille de Brisay, officier de cavalerie, et de Marie Brindejonc de Bermingham.
 Dramaturge, il signe de nombreuses pièces de théâtre jouées notamment au Théâtre Antoine comme, en 1909, Master Bob, gagnant du Derby, qu'il écrivit avec Marcel Lauras pour l'acteur Firmin Gémier.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flamberge au vent, illustré par Job, Charavay, Mantoux, Martin éditeurs (1890)
 Le Plus Beau du monde, comédie en 1 acte, H. Rhode (1890), écrite en collaboration avec Sadi Pety
@@ -593,15 +609,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>En tant que scénariste
-1911 : Bébé court après sa montre, court-métrage muet réalisé par Louis Feuillade
+          <t>En tant que scénariste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1911 : Bébé court après sa montre, court-métrage muet réalisé par Louis Feuillade
 1912 : L'Invisible, court-métrage muet réalisé par Victorin-Hippolyte Jasset
 1913 : Le Dictateur, court-métrage muet réalisé par Émile Chautard
 1913 : Onésime et le cœur du tzigane, court-métrage muet réalisé par Jean Durand
 1913 : Onésime aime les bêtes, court-métrage muet réalisé par Jean Durand
-1917 : Un homme passa, court-métrage muet réalisé par Henry Roussel
-Adaptation
-1913 : Jean la Poudre ou La Conquête d'Algérie, court-métrage muet réalisé par Émile Chautard et Maurice Tourneur, adaptation par les réalisateurs du roman éponyme d'Henry de Brisay
+1917 : Un homme passa, court-métrage muet réalisé par Henry Roussel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henry_de_Brisay</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_de_Brisay</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1913 : Jean la Poudre ou La Conquête d'Algérie, court-métrage muet réalisé par Émile Chautard et Maurice Tourneur, adaptation par les réalisateurs du roman éponyme d'Henry de Brisay
 1918 : Ainsi va la vie, court-métrage muet réalisé par Pierre Bressol, adaptation par le réalisateur de la pièce La Condamnée d'Henry de Brisay</t>
         </is>
       </c>
